--- a/main/results/SegriaSud/plots/UpperCases.xlsx
+++ b/main/results/SegriaSud/plots/UpperCases.xlsx
@@ -187,433 +187,433 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>203.01</v>
+      <c r="B2" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>166.85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>95.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>267.63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>118.65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>137.22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>126.62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>120.84</v>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>118.28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="B11" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>45.17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="B12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>214.98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="B13" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>-56.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>-40.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>-71.77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="B16" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>-126.13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="B17" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>24.35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>-56.24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>-55.26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>-56.34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>-56.63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>-41.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>-71.77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="B24" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>-126.52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="B25" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>24.35</v>
       </c>
     </row>
